--- a/Assets/Excel/ItemPriceRateTable.xlsx
+++ b/Assets/Excel/ItemPriceRateTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6344253-CC3F-442D-83EE-E3083078DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DF22F-668A-4D57-896B-73FC909D6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
@@ -79,48 +79,50 @@
     <t>내구성 수리 회복값</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month3</t>
+  </si>
+  <si>
+    <t>month4</t>
+  </si>
+  <si>
+    <t>month5</t>
+  </si>
+  <si>
+    <t>month6</t>
+  </si>
+  <si>
+    <t>month7</t>
+  </si>
+  <si>
+    <t>month8</t>
+  </si>
+  <si>
+    <t>month9</t>
+  </si>
+  <si>
+    <t>month10</t>
+  </si>
+  <si>
+    <t>month11</t>
+  </si>
+  <si>
+    <t>month12</t>
   </si>
 </sst>
 </file>
@@ -508,7 +510,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -582,40 +584,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -667,43 +669,43 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>28</v>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">

--- a/Assets/Excel/ItemPriceRateTable.xlsx
+++ b/Assets/Excel/ItemPriceRateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DF22F-668A-4D57-896B-73FC909D6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC697E-D306-4B8C-860C-73D745B30704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemPriceRateTable" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -716,40 +716,40 @@
         <v>1977</v>
       </c>
       <c r="C5" s="1">
-        <v>58.5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>59.1</v>
+        <v>1.0102599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>59.5</v>
+        <v>1.01709</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
+        <v>1.0256400000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>60.3</v>
+        <v>1.03077</v>
       </c>
       <c r="H5" s="1">
-        <v>60.7</v>
+        <v>1.0376099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>61</v>
+        <v>1.04274</v>
       </c>
       <c r="J5" s="1">
-        <v>61.2</v>
+        <v>1.0461499999999999</v>
       </c>
       <c r="K5" s="1">
-        <v>61.4</v>
+        <v>1.0495699999999999</v>
       </c>
       <c r="L5" s="1">
-        <v>61.6</v>
+        <v>1.0529900000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>61.9</v>
+        <v>1.0581199999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>62.1</v>
+        <v>1.0581199999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -760,40 +760,40 @@
         <v>1978</v>
       </c>
       <c r="C6" s="1">
-        <v>62.5</v>
+        <v>1.0683800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>62.9</v>
+        <v>1.07521</v>
       </c>
       <c r="E6" s="1">
-        <v>63.4</v>
+        <v>1.0837600000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>63.9</v>
+        <v>1.0923099999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>64.5</v>
+        <v>1.10256</v>
       </c>
       <c r="H6" s="1">
-        <v>65.2</v>
+        <v>1.11453</v>
       </c>
       <c r="I6" s="1">
-        <v>65.7</v>
+        <v>1.1230800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>66</v>
+        <v>1.1282099999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>66.5</v>
+        <v>1.1367499999999999</v>
       </c>
       <c r="L6" s="1">
-        <v>67.099999999999994</v>
+        <v>1.1470100000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>67.400000000000006</v>
+        <v>1.1521399999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>67.7</v>
+        <v>1.1521399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -804,40 +804,40 @@
         <v>1979</v>
       </c>
       <c r="C7" s="1">
-        <v>68.3</v>
+        <v>1.1675199999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>69.099999999999994</v>
+        <v>1.1812</v>
       </c>
       <c r="E7" s="1">
-        <v>69.8</v>
+        <v>1.19316</v>
       </c>
       <c r="F7" s="1">
-        <v>70.599999999999994</v>
+        <v>1.2068399999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>71.5</v>
+        <v>1.2222200000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>72.3</v>
+        <v>1.2359</v>
       </c>
       <c r="I7" s="1">
-        <v>73.099999999999994</v>
+        <v>1.2495700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>73.8</v>
+        <v>1.2615400000000001</v>
       </c>
       <c r="K7" s="1">
-        <v>74.599999999999994</v>
+        <v>1.27521</v>
       </c>
       <c r="L7" s="1">
-        <v>75.2</v>
+        <v>1.2854699999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>75.900000000000006</v>
+        <v>1.2974399999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>76.7</v>
+        <v>1.2974399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -848,40 +848,40 @@
         <v>1980</v>
       </c>
       <c r="C8" s="1">
-        <v>77.8</v>
+        <v>1.3299099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>78.900000000000006</v>
+        <v>1.3487199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>80.099999999999994</v>
+        <v>1.3692299999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>81</v>
+        <v>1.38462</v>
       </c>
       <c r="G8" s="1">
-        <v>81.8</v>
+        <v>1.39829</v>
       </c>
       <c r="H8" s="1">
-        <v>82.7</v>
+        <v>1.41368</v>
       </c>
       <c r="I8" s="1">
-        <v>82.7</v>
+        <v>1.41368</v>
       </c>
       <c r="J8" s="1">
-        <v>83.3</v>
+        <v>1.4239299999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>84</v>
+        <v>1.4359</v>
       </c>
       <c r="L8" s="1">
-        <v>84.8</v>
+        <v>1.44957</v>
       </c>
       <c r="M8" s="1">
-        <v>85.5</v>
+        <v>1.4615400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>86.3</v>
+        <v>1.4615400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -892,40 +892,40 @@
         <v>1981</v>
       </c>
       <c r="C9" s="1">
-        <v>87</v>
+        <v>1.4871799999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>87.9</v>
+        <v>1.5025599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>88.5</v>
+        <v>1.5128200000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>89.1</v>
+        <v>1.52308</v>
       </c>
       <c r="G9" s="1">
-        <v>89.8</v>
+        <v>1.53504</v>
       </c>
       <c r="H9" s="1">
-        <v>90.6</v>
+        <v>1.5487200000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>91.6</v>
+        <v>1.5658099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>92.3</v>
+        <v>1.57778</v>
       </c>
       <c r="K9" s="1">
-        <v>93.2</v>
+        <v>1.5931599999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>93.4</v>
+        <v>1.5965800000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>93.7</v>
+        <v>1.60171</v>
       </c>
       <c r="N9" s="1">
-        <v>94</v>
+        <v>1.60171</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -936,40 +936,40 @@
         <v>1982</v>
       </c>
       <c r="C10" s="1">
-        <v>94.3</v>
+        <v>1.6119699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>94.6</v>
+        <v>1.6170899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>94.5</v>
+        <v>1.61538</v>
       </c>
       <c r="F10" s="1">
-        <v>94.9</v>
+        <v>1.62222</v>
       </c>
       <c r="G10" s="1">
-        <v>95.8</v>
+        <v>1.63761</v>
       </c>
       <c r="H10" s="1">
-        <v>97</v>
+        <v>1.65812</v>
       </c>
       <c r="I10" s="1">
-        <v>97.5</v>
+        <v>1.6666700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>97.7</v>
+        <v>1.6700900000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>97.9</v>
+        <v>1.6735</v>
       </c>
       <c r="L10" s="1">
-        <v>98.2</v>
+        <v>1.6786300000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>98</v>
+        <v>1.6752100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>97.6</v>
+        <v>1.6752100000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -980,40 +980,40 @@
         <v>1983</v>
       </c>
       <c r="C11" s="1">
-        <v>97.8</v>
+        <v>1.6717900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>97.9</v>
+        <v>1.6735</v>
       </c>
       <c r="E11" s="1">
-        <v>97.9</v>
+        <v>1.6735</v>
       </c>
       <c r="F11" s="1">
-        <v>98.6</v>
+        <v>1.68547</v>
       </c>
       <c r="G11" s="1">
-        <v>99.2</v>
+        <v>1.69573</v>
       </c>
       <c r="H11" s="1">
-        <v>99.5</v>
+        <v>1.70085</v>
       </c>
       <c r="I11" s="1">
-        <v>99.9</v>
+        <v>1.7076899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>100.2</v>
+        <v>1.71282</v>
       </c>
       <c r="K11" s="1">
-        <v>100.7</v>
+        <v>1.7213700000000001</v>
       </c>
       <c r="L11" s="1">
-        <v>101</v>
+        <v>1.7264999999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>101.2</v>
+        <v>1.7299100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>101.3</v>
+        <v>1.7299100000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1024,40 +1024,40 @@
         <v>1984</v>
       </c>
       <c r="C12" s="1">
-        <v>101.9</v>
+        <v>1.7418800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>102.4</v>
+        <v>1.7504299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>102.6</v>
+        <v>1.7538499999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>103.1</v>
+        <v>1.7623899999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>103.4</v>
+        <v>1.76752</v>
       </c>
       <c r="H12" s="1">
-        <v>103.7</v>
+        <v>1.7726500000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>104.1</v>
+        <v>1.77949</v>
       </c>
       <c r="J12" s="1">
-        <v>104.5</v>
+        <v>1.7863199999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>105</v>
+        <v>1.79487</v>
       </c>
       <c r="L12" s="1">
-        <v>105.3</v>
+        <v>1.8</v>
       </c>
       <c r="M12" s="1">
-        <v>105.3</v>
+        <v>1.8</v>
       </c>
       <c r="N12" s="1">
-        <v>105.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1068,40 +1068,40 @@
         <v>1985</v>
       </c>
       <c r="C13" s="1">
-        <v>105.5</v>
+        <v>1.80342</v>
       </c>
       <c r="D13" s="1">
-        <v>106</v>
+        <v>1.8119700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>106.4</v>
+        <v>1.8188</v>
       </c>
       <c r="F13" s="1">
-        <v>106.9</v>
+        <v>1.82735</v>
       </c>
       <c r="G13" s="1">
-        <v>107.3</v>
+        <v>1.83419</v>
       </c>
       <c r="H13" s="1">
-        <v>107.6</v>
+        <v>1.8393200000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>107.8</v>
+        <v>1.84274</v>
       </c>
       <c r="J13" s="1">
-        <v>108</v>
+        <v>1.84615</v>
       </c>
       <c r="K13" s="1">
-        <v>108.3</v>
+        <v>1.85128</v>
       </c>
       <c r="L13" s="1">
-        <v>108.7</v>
+        <v>1.85812</v>
       </c>
       <c r="M13" s="1">
-        <v>109</v>
+        <v>1.8632500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>109.3</v>
+        <v>1.8632500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1112,40 +1112,40 @@
         <v>1986</v>
       </c>
       <c r="C14" s="1">
-        <v>109.6</v>
+        <v>1.8734999999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>109.3</v>
+        <v>1.8683799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>108.8</v>
+        <v>1.8598300000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>108.6</v>
+        <v>1.8564099999999999</v>
       </c>
       <c r="G14" s="1">
-        <v>108.9</v>
+        <v>1.86154</v>
       </c>
       <c r="H14" s="1">
-        <v>109.5</v>
+        <v>1.8717900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>109.5</v>
+        <v>1.8717900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>109.7</v>
+        <v>1.87521</v>
       </c>
       <c r="K14" s="1">
-        <v>110.2</v>
+        <v>1.8837600000000001</v>
       </c>
       <c r="L14" s="1">
-        <v>110.3</v>
+        <v>1.88547</v>
       </c>
       <c r="M14" s="1">
-        <v>110.4</v>
+        <v>1.8871800000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>110.5</v>
+        <v>1.8871800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1156,40 +1156,40 @@
         <v>1987</v>
       </c>
       <c r="C15" s="1">
-        <v>111.2</v>
+        <v>1.9008499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>111.6</v>
+        <v>1.9076900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>112.1</v>
+        <v>1.9162399999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>112.7</v>
+        <v>1.9265000000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>113.1</v>
+        <v>1.93333</v>
       </c>
       <c r="H15" s="1">
-        <v>113.5</v>
+        <v>1.94017</v>
       </c>
       <c r="I15" s="1">
-        <v>113.8</v>
+        <v>1.9453</v>
       </c>
       <c r="J15" s="1">
-        <v>114.4</v>
+        <v>1.95556</v>
       </c>
       <c r="K15" s="1">
-        <v>115</v>
+        <v>1.9658100000000001</v>
       </c>
       <c r="L15" s="1">
-        <v>115.3</v>
+        <v>1.9709399999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>115.4</v>
+        <v>1.97265</v>
       </c>
       <c r="N15" s="1">
-        <v>115.4</v>
+        <v>1.97265</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1200,40 +1200,40 @@
         <v>1988</v>
       </c>
       <c r="C16" s="1">
-        <v>115.7</v>
+        <v>1.9777800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>116</v>
+        <v>1.98291</v>
       </c>
       <c r="E16" s="1">
-        <v>116.5</v>
+        <v>1.9914499999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>117.1</v>
+        <v>2.0017100000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>117.5</v>
+        <v>2.0085500000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>118</v>
+        <v>2.01709</v>
       </c>
       <c r="I16" s="1">
-        <v>118.5</v>
+        <v>2.0256400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>119</v>
+        <v>2.0341900000000002</v>
       </c>
       <c r="K16" s="1">
-        <v>119.8</v>
+        <v>2.04786</v>
       </c>
       <c r="L16" s="1">
-        <v>120.2</v>
+        <v>2.0547</v>
       </c>
       <c r="M16" s="1">
-        <v>120.3</v>
+        <v>2.0564100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>120.5</v>
+        <v>2.0564100000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1244,40 +1244,40 @@
         <v>1989</v>
       </c>
       <c r="C17" s="1">
-        <v>121.1</v>
+        <v>2.07009</v>
       </c>
       <c r="D17" s="1">
-        <v>121.6</v>
+        <v>2.07863</v>
       </c>
       <c r="E17" s="1">
-        <v>122.3</v>
+        <v>2.0905999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>123.1</v>
+        <v>2.1042700000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>123.8</v>
+        <v>2.1162399999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>124.1</v>
+        <v>2.1213700000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>124.4</v>
+        <v>2.1265000000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>124.6</v>
+        <v>2.1299100000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>125</v>
+        <v>2.1367500000000001</v>
       </c>
       <c r="L17" s="1">
-        <v>125.6</v>
+        <v>2.1470099999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>125.9</v>
+        <v>2.1521400000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>126.1</v>
+        <v>2.1521400000000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1288,40 +1288,40 @@
         <v>1990</v>
       </c>
       <c r="C18" s="1">
-        <v>127.4</v>
+        <v>2.1777799999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>128</v>
+        <v>2.1880299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>128.69999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>128.9</v>
+        <v>2.2034199999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>129.19999999999999</v>
+        <v>2.2085499999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>129.9</v>
+        <v>2.22051</v>
       </c>
       <c r="I18" s="1">
-        <v>130.4</v>
+        <v>2.22906</v>
       </c>
       <c r="J18" s="1">
-        <v>131.6</v>
+        <v>2.2495699999999998</v>
       </c>
       <c r="K18" s="1">
-        <v>132.69999999999999</v>
+        <v>2.2683800000000001</v>
       </c>
       <c r="L18" s="1">
-        <v>133.5</v>
+        <v>2.2820499999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>133.80000000000001</v>
+        <v>2.2871800000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>133.80000000000001</v>
+        <v>2.2871800000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1332,40 +1332,40 @@
         <v>1991</v>
       </c>
       <c r="C19" s="1">
-        <v>134.6</v>
+        <v>2.3008500000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>134.80000000000001</v>
+        <v>2.3042699999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>135</v>
+        <v>2.30769</v>
       </c>
       <c r="F19" s="1">
-        <v>135.19999999999999</v>
+        <v>2.3111100000000002</v>
       </c>
       <c r="G19" s="1">
-        <v>135.6</v>
+        <v>2.3179500000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>136</v>
+        <v>2.3247900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>136.19999999999999</v>
+        <v>2.3282099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>136.6</v>
+        <v>2.3350399999999998</v>
       </c>
       <c r="K19" s="1">
-        <v>137.19999999999999</v>
+        <v>2.3452999999999999</v>
       </c>
       <c r="L19" s="1">
-        <v>137.4</v>
+        <v>2.3487200000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>137.80000000000001</v>
+        <v>2.3555600000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>137.9</v>
+        <v>2.3555600000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1376,40 +1376,40 @@
         <v>1992</v>
       </c>
       <c r="C20" s="1">
-        <v>138.1</v>
+        <v>2.3606799999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>138.6</v>
+        <v>2.3692299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>139.30000000000001</v>
+        <v>2.3812000000000002</v>
       </c>
       <c r="F20" s="1">
-        <v>139.5</v>
+        <v>2.38462</v>
       </c>
       <c r="G20" s="1">
-        <v>139.69999999999999</v>
+        <v>2.3880300000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>140.19999999999999</v>
+        <v>2.3965800000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>140.5</v>
+        <v>2.40171</v>
       </c>
       <c r="J20" s="1">
-        <v>140.9</v>
+        <v>2.40855</v>
       </c>
       <c r="K20" s="1">
-        <v>141.30000000000001</v>
+        <v>2.4153799999999999</v>
       </c>
       <c r="L20" s="1">
-        <v>141.80000000000001</v>
+        <v>2.4239299999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>142</v>
+        <v>2.4273500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>141.9</v>
+        <v>2.4273500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1420,40 +1420,40 @@
         <v>1993</v>
       </c>
       <c r="C21" s="1">
-        <v>142.6</v>
+        <v>2.4376099999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>143.1</v>
+        <v>2.4461499999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>143.6</v>
+        <v>2.4546999999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>144</v>
+        <v>2.4615399999999998</v>
       </c>
       <c r="G21" s="1">
-        <v>144.19999999999999</v>
+        <v>2.46496</v>
       </c>
       <c r="H21" s="1">
-        <v>144.4</v>
+        <v>2.4683799999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>144.4</v>
+        <v>2.4683799999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>144.80000000000001</v>
+        <v>2.4752100000000001</v>
       </c>
       <c r="K21" s="1">
-        <v>145.1</v>
+        <v>2.48034</v>
       </c>
       <c r="L21" s="1">
-        <v>145.69999999999999</v>
+        <v>2.4906000000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>145.80000000000001</v>
+        <v>2.4923099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>145.80000000000001</v>
+        <v>2.4923099999999998</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1464,40 +1464,40 @@
         <v>1994</v>
       </c>
       <c r="C22" s="1">
-        <v>146.19999999999999</v>
+        <v>2.4991500000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>146.69999999999999</v>
+        <v>2.5076900000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>147.19999999999999</v>
+        <v>2.5162399999999998</v>
       </c>
       <c r="F22" s="1">
-        <v>147.4</v>
+        <v>2.51966</v>
       </c>
       <c r="G22" s="1">
-        <v>147.5</v>
+        <v>2.5213700000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>148</v>
+        <v>2.5299100000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>148.4</v>
+        <v>2.5367500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>149</v>
+        <v>2.5470100000000002</v>
       </c>
       <c r="K22" s="1">
-        <v>149.4</v>
+        <v>2.5538500000000002</v>
       </c>
       <c r="L22" s="1">
-        <v>149.5</v>
+        <v>2.5555599999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>149.69999999999999</v>
+        <v>2.55897</v>
       </c>
       <c r="N22" s="1">
-        <v>149.69999999999999</v>
+        <v>2.55897</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1508,40 +1508,40 @@
         <v>1995</v>
       </c>
       <c r="C23" s="1">
-        <v>150.30000000000001</v>
+        <v>2.5692300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>150.9</v>
+        <v>2.5794899999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>151.4</v>
+        <v>2.5880299999999998</v>
       </c>
       <c r="F23" s="1">
-        <v>151.9</v>
+        <v>2.5965799999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>152.19999999999999</v>
+        <v>2.6017100000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>152.5</v>
+        <v>2.60684</v>
       </c>
       <c r="I23" s="1">
-        <v>152.5</v>
+        <v>2.60684</v>
       </c>
       <c r="J23" s="1">
-        <v>152.9</v>
+        <v>2.61368</v>
       </c>
       <c r="K23" s="1">
-        <v>153.19999999999999</v>
+        <v>2.6187999999999998</v>
       </c>
       <c r="L23" s="1">
-        <v>153.69999999999999</v>
+        <v>2.6273499999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>153.6</v>
+        <v>2.6256400000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>153.5</v>
+        <v>2.6256400000000002</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1552,40 +1552,40 @@
         <v>1996</v>
       </c>
       <c r="C24" s="1">
-        <v>154.4</v>
+        <v>2.6393200000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>154.9</v>
+        <v>2.6478600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>155.69999999999999</v>
+        <v>2.66154</v>
       </c>
       <c r="F24" s="1">
-        <v>156.30000000000001</v>
+        <v>2.6717900000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>156.6</v>
+        <v>2.67692</v>
       </c>
       <c r="H24" s="1">
-        <v>156.69999999999999</v>
+        <v>2.6786300000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>157</v>
+        <v>2.6837599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>157.30000000000001</v>
+        <v>2.6888899999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>157.80000000000001</v>
+        <v>2.6974399999999998</v>
       </c>
       <c r="L24" s="1">
-        <v>158.30000000000001</v>
+        <v>2.7059799999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>158.6</v>
+        <v>2.7111100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>158.6</v>
+        <v>2.7111100000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1596,40 +1596,40 @@
         <v>1997</v>
       </c>
       <c r="C25" s="1">
-        <v>159.1</v>
+        <v>2.7196600000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>159.6</v>
+        <v>2.7282099999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>160</v>
+        <v>2.7350400000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>160.19999999999999</v>
+        <v>2.7384599999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>160.1</v>
+        <v>2.7367499999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>160.30000000000001</v>
+        <v>2.74017</v>
       </c>
       <c r="I25" s="1">
-        <v>160.5</v>
+        <v>2.7435900000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>160.80000000000001</v>
+        <v>2.7487200000000001</v>
       </c>
       <c r="K25" s="1">
-        <v>161.19999999999999</v>
+        <v>2.75556</v>
       </c>
       <c r="L25" s="1">
-        <v>161.6</v>
+        <v>2.7623899999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>161.5</v>
+        <v>2.7606799999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>161.30000000000001</v>
+        <v>2.7606799999999998</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1640,40 +1640,40 @@
         <v>1998</v>
       </c>
       <c r="C26" s="1">
-        <v>161.6</v>
+        <v>2.7623899999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>161.9</v>
+        <v>2.7675200000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>162.19999999999999</v>
+        <v>2.7726500000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>162.5</v>
+        <v>2.7777799999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>162.80000000000001</v>
+        <v>2.7829100000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>163</v>
+        <v>2.7863199999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>163.19999999999999</v>
+        <v>2.7897400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>163.4</v>
+        <v>2.7931599999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>163.6</v>
+        <v>2.7965800000000001</v>
       </c>
       <c r="L26" s="1">
-        <v>164</v>
+        <v>2.80342</v>
       </c>
       <c r="M26" s="1">
-        <v>164</v>
+        <v>2.80342</v>
       </c>
       <c r="N26" s="1">
-        <v>163.9</v>
+        <v>2.80342</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1684,40 +1684,40 @@
         <v>1999</v>
       </c>
       <c r="C27" s="1">
-        <v>164.3</v>
+        <v>2.8085499999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>164.5</v>
+        <v>2.8119700000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>165</v>
+        <v>2.8205100000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>166.2</v>
+        <v>2.8410299999999999</v>
       </c>
       <c r="G27" s="1">
-        <v>166.2</v>
+        <v>2.8410299999999999</v>
       </c>
       <c r="H27" s="1">
-        <v>166.2</v>
+        <v>2.8410299999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>166.7</v>
+        <v>2.8495699999999999</v>
       </c>
       <c r="J27" s="1">
-        <v>167.1</v>
+        <v>2.8564099999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>167.9</v>
+        <v>2.8700899999999998</v>
       </c>
       <c r="L27" s="1">
-        <v>168.2</v>
+        <v>2.87521</v>
       </c>
       <c r="M27" s="1">
-        <v>168.3</v>
+        <v>2.8769200000000001</v>
       </c>
       <c r="N27" s="1">
-        <v>168.3</v>
+        <v>2.8769200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1728,40 +1728,40 @@
         <v>2000</v>
       </c>
       <c r="C28" s="1">
-        <v>168.8</v>
+        <v>2.8854700000000002</v>
       </c>
       <c r="D28" s="1">
-        <v>169.8</v>
+        <v>2.9025599999999998</v>
       </c>
       <c r="E28" s="1">
-        <v>171.2</v>
+        <v>2.9264999999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>171.3</v>
+        <v>2.92821</v>
       </c>
       <c r="G28" s="1">
-        <v>171.5</v>
+        <v>2.9316200000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>172.4</v>
+        <v>2.9470100000000001</v>
       </c>
       <c r="I28" s="1">
-        <v>172.8</v>
+        <v>2.9538500000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>172.8</v>
+        <v>2.9538500000000001</v>
       </c>
       <c r="K28" s="1">
-        <v>173.7</v>
+        <v>2.96923</v>
       </c>
       <c r="L28" s="1">
-        <v>174</v>
+        <v>2.9743599999999999</v>
       </c>
       <c r="M28" s="1">
-        <v>174.1</v>
+        <v>2.97607</v>
       </c>
       <c r="N28" s="1">
-        <v>174</v>
+        <v>2.97607</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1772,40 +1772,40 @@
         <v>2001</v>
       </c>
       <c r="C29" s="1">
-        <v>175.1</v>
+        <v>2.99316</v>
       </c>
       <c r="D29" s="1">
-        <v>175.8</v>
+        <v>3.0051299999999999</v>
       </c>
       <c r="E29" s="1">
-        <v>176.2</v>
+        <v>3.0119699999999998</v>
       </c>
       <c r="F29" s="1">
-        <v>176.9</v>
+        <v>3.02393</v>
       </c>
       <c r="G29" s="1">
-        <v>177.7</v>
+        <v>3.0376099999999999</v>
       </c>
       <c r="H29" s="1">
-        <v>178</v>
+        <v>3.0427399999999998</v>
       </c>
       <c r="I29" s="1">
-        <v>177.5</v>
+        <v>3.0341900000000002</v>
       </c>
       <c r="J29" s="1">
-        <v>177.5</v>
+        <v>3.0341900000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>178.3</v>
+        <v>3.04786</v>
       </c>
       <c r="L29" s="1">
-        <v>177.7</v>
+        <v>3.0376099999999999</v>
       </c>
       <c r="M29" s="1">
-        <v>177.4</v>
+        <v>3.0324800000000001</v>
       </c>
       <c r="N29" s="1">
-        <v>176.7</v>
+        <v>3.0324800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1816,40 +1816,40 @@
         <v>2002</v>
       </c>
       <c r="C30" s="1">
-        <v>177.1</v>
+        <v>3.0273500000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>177.8</v>
+        <v>3.03932</v>
       </c>
       <c r="E30" s="1">
-        <v>178.8</v>
+        <v>3.0564100000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>179.8</v>
+        <v>3.0735000000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>179.8</v>
+        <v>3.0735000000000001</v>
       </c>
       <c r="H30" s="1">
-        <v>179.9</v>
+        <v>3.0752100000000002</v>
       </c>
       <c r="I30" s="1">
-        <v>180.1</v>
+        <v>3.07863</v>
       </c>
       <c r="J30" s="1">
-        <v>180.7</v>
+        <v>3.0888900000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>181</v>
+        <v>3.09402</v>
       </c>
       <c r="L30" s="1">
-        <v>181.3</v>
+        <v>3.0991499999999998</v>
       </c>
       <c r="M30" s="1">
-        <v>181.3</v>
+        <v>3.0991499999999998</v>
       </c>
       <c r="N30" s="1">
-        <v>180.9</v>
+        <v>3.0991499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1860,40 +1860,40 @@
         <v>2003</v>
       </c>
       <c r="C31" s="1">
-        <v>181.7</v>
+        <v>3.1059800000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>183.1</v>
+        <v>3.1299100000000002</v>
       </c>
       <c r="E31" s="1">
-        <v>184.2</v>
+        <v>3.14872</v>
       </c>
       <c r="F31" s="1">
-        <v>183.8</v>
+        <v>3.14188</v>
       </c>
       <c r="G31" s="1">
-        <v>183.5</v>
+        <v>3.1367500000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>183.7</v>
+        <v>3.1401699999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>183.9</v>
+        <v>3.1435900000000001</v>
       </c>
       <c r="J31" s="1">
-        <v>184.6</v>
+        <v>3.1555599999999999</v>
       </c>
       <c r="K31" s="1">
-        <v>185.2</v>
+        <v>3.16581</v>
       </c>
       <c r="L31" s="1">
-        <v>185</v>
+        <v>3.1623899999999998</v>
       </c>
       <c r="M31" s="1">
-        <v>184.5</v>
+        <v>3.1538499999999998</v>
       </c>
       <c r="N31" s="1">
-        <v>184.3</v>
+        <v>3.1538499999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -1904,40 +1904,40 @@
         <v>2004</v>
       </c>
       <c r="C32" s="1">
-        <v>185.2</v>
+        <v>3.16581</v>
       </c>
       <c r="D32" s="1">
-        <v>186.2</v>
+        <v>3.1829100000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>187.4</v>
+        <v>3.2034199999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>188</v>
+        <v>3.2136800000000001</v>
       </c>
       <c r="G32" s="1">
-        <v>189.1</v>
+        <v>3.2324799999999998</v>
       </c>
       <c r="H32" s="1">
-        <v>189.7</v>
+        <v>3.24274</v>
       </c>
       <c r="I32" s="1">
-        <v>189.4</v>
+        <v>3.2376100000000001</v>
       </c>
       <c r="J32" s="1">
-        <v>189.5</v>
+        <v>3.2393200000000002</v>
       </c>
       <c r="K32" s="1">
-        <v>189.9</v>
+        <v>3.2461500000000001</v>
       </c>
       <c r="L32" s="1">
-        <v>190.9</v>
+        <v>3.2632500000000002</v>
       </c>
       <c r="M32" s="1">
-        <v>191</v>
+        <v>3.2649599999999999</v>
       </c>
       <c r="N32" s="1">
-        <v>190.3</v>
+        <v>3.2649599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -1948,40 +1948,40 @@
         <v>2005</v>
       </c>
       <c r="C33" s="1">
-        <v>190.7</v>
+        <v>3.25983</v>
       </c>
       <c r="D33" s="1">
-        <v>191.8</v>
+        <v>3.2786300000000002</v>
       </c>
       <c r="E33" s="1">
-        <v>193.3</v>
+        <v>3.3042699999999998</v>
       </c>
       <c r="F33" s="1">
-        <v>194.6</v>
+        <v>3.3264999999999998</v>
       </c>
       <c r="G33" s="1">
-        <v>194.4</v>
+        <v>3.32308</v>
       </c>
       <c r="H33" s="1">
-        <v>194.5</v>
+        <v>3.3247900000000001</v>
       </c>
       <c r="I33" s="1">
-        <v>195.4</v>
+        <v>3.3401700000000001</v>
       </c>
       <c r="J33" s="1">
-        <v>196.4</v>
+        <v>3.3572600000000001</v>
       </c>
       <c r="K33" s="1">
-        <v>198.8</v>
+        <v>3.3982899999999998</v>
       </c>
       <c r="L33" s="1">
-        <v>199.2</v>
+        <v>3.4051300000000002</v>
       </c>
       <c r="M33" s="1">
-        <v>197.6</v>
+        <v>3.37778</v>
       </c>
       <c r="N33" s="1">
-        <v>196.8</v>
+        <v>3.37778</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -1992,40 +1992,40 @@
         <v>2006</v>
       </c>
       <c r="C34" s="1">
-        <v>198.3</v>
+        <v>3.3897400000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>198.7</v>
+        <v>3.3965800000000002</v>
       </c>
       <c r="E34" s="1">
-        <v>199.8</v>
+        <v>3.4153799999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>201.5</v>
+        <v>3.4444400000000002</v>
       </c>
       <c r="G34" s="1">
-        <v>202.5</v>
+        <v>3.4615399999999998</v>
       </c>
       <c r="H34" s="1">
-        <v>202.9</v>
+        <v>3.4683799999999998</v>
       </c>
       <c r="I34" s="1">
-        <v>203.5</v>
+        <v>3.4786299999999999</v>
       </c>
       <c r="J34" s="1">
-        <v>203.9</v>
+        <v>3.4854699999999998</v>
       </c>
       <c r="K34" s="1">
-        <v>202.9</v>
+        <v>3.4683799999999998</v>
       </c>
       <c r="L34" s="1">
-        <v>201.8</v>
+        <v>3.44957</v>
       </c>
       <c r="M34" s="1">
-        <v>201.5</v>
+        <v>3.4444400000000002</v>
       </c>
       <c r="N34" s="1">
-        <v>201.8</v>
+        <v>3.4444400000000002</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2036,40 +2036,40 @@
         <v>2007</v>
       </c>
       <c r="C35" s="1">
-        <v>202.416</v>
+        <v>3.4601000000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>203.499</v>
+        <v>3.4786199999999998</v>
       </c>
       <c r="E35" s="1">
-        <v>205.352</v>
+        <v>3.5102899999999999</v>
       </c>
       <c r="F35" s="1">
-        <v>206.68600000000001</v>
+        <v>3.5330900000000001</v>
       </c>
       <c r="G35" s="1">
-        <v>207.94900000000001</v>
+        <v>3.5546799999999998</v>
       </c>
       <c r="H35" s="1">
-        <v>208.352</v>
+        <v>3.5615700000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>208.29900000000001</v>
+        <v>3.56067</v>
       </c>
       <c r="J35" s="1">
-        <v>207.917</v>
+        <v>3.5541399999999999</v>
       </c>
       <c r="K35" s="1">
-        <v>208.49</v>
+        <v>3.56393</v>
       </c>
       <c r="L35" s="1">
-        <v>208.93600000000001</v>
+        <v>3.5715599999999998</v>
       </c>
       <c r="M35" s="1">
-        <v>210.17699999999999</v>
+        <v>3.5927699999999998</v>
       </c>
       <c r="N35" s="1">
-        <v>210.036</v>
+        <v>3.5927699999999998</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2080,40 +2080,40 @@
         <v>2008</v>
       </c>
       <c r="C36" s="1">
-        <v>211.08</v>
+        <v>3.6082100000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>211.69300000000001</v>
+        <v>3.6186799999999999</v>
       </c>
       <c r="E36" s="1">
-        <v>213.52799999999999</v>
+        <v>3.6500499999999998</v>
       </c>
       <c r="F36" s="1">
-        <v>214.82300000000001</v>
+        <v>3.6721900000000001</v>
       </c>
       <c r="G36" s="1">
-        <v>216.63200000000001</v>
+        <v>3.7031100000000001</v>
       </c>
       <c r="H36" s="1">
-        <v>218.815</v>
+        <v>3.7404299999999999</v>
       </c>
       <c r="I36" s="1">
-        <v>219.964</v>
+        <v>3.7600699999999998</v>
       </c>
       <c r="J36" s="1">
-        <v>219.08600000000001</v>
+        <v>3.7450600000000001</v>
       </c>
       <c r="K36" s="1">
-        <v>218.78299999999999</v>
+        <v>3.7398799999999999</v>
       </c>
       <c r="L36" s="1">
-        <v>216.57300000000001</v>
+        <v>3.7021000000000002</v>
       </c>
       <c r="M36" s="1">
-        <v>212.42500000000001</v>
+        <v>3.6312000000000002</v>
       </c>
       <c r="N36" s="1">
-        <v>210.22800000000001</v>
+        <v>3.6312000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2124,40 +2124,40 @@
         <v>2009</v>
       </c>
       <c r="C37" s="1">
-        <v>211.143</v>
+        <v>3.60928</v>
       </c>
       <c r="D37" s="1">
-        <v>212.19300000000001</v>
+        <v>3.62723</v>
       </c>
       <c r="E37" s="1">
-        <v>212.709</v>
+        <v>3.63605</v>
       </c>
       <c r="F37" s="1">
-        <v>213.24</v>
+        <v>3.64513</v>
       </c>
       <c r="G37" s="1">
-        <v>213.85599999999999</v>
+        <v>3.6556600000000001</v>
       </c>
       <c r="H37" s="1">
-        <v>215.69300000000001</v>
+        <v>3.6870599999999998</v>
       </c>
       <c r="I37" s="1">
-        <v>215.351</v>
+        <v>3.6812100000000001</v>
       </c>
       <c r="J37" s="1">
-        <v>215.834</v>
+        <v>3.68947</v>
       </c>
       <c r="K37" s="1">
-        <v>215.96899999999999</v>
+        <v>3.6917800000000001</v>
       </c>
       <c r="L37" s="1">
-        <v>216.17699999999999</v>
+        <v>3.6953299999999998</v>
       </c>
       <c r="M37" s="1">
-        <v>216.33</v>
+        <v>3.6979500000000001</v>
       </c>
       <c r="N37" s="1">
-        <v>215.94900000000001</v>
+        <v>3.6979500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2168,40 +2168,40 @@
         <v>2010</v>
       </c>
       <c r="C38" s="1">
-        <v>216.68700000000001</v>
+        <v>3.7040500000000001</v>
       </c>
       <c r="D38" s="1">
-        <v>216.74100000000001</v>
+        <v>3.7049699999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>217.631</v>
+        <v>3.7201900000000001</v>
       </c>
       <c r="F38" s="1">
-        <v>218.00899999999999</v>
+        <v>3.7266499999999998</v>
       </c>
       <c r="G38" s="1">
-        <v>218.178</v>
+        <v>3.7295400000000001</v>
       </c>
       <c r="H38" s="1">
-        <v>217.965</v>
+        <v>3.7259000000000002</v>
       </c>
       <c r="I38" s="1">
-        <v>218.011</v>
+        <v>3.72668</v>
       </c>
       <c r="J38" s="1">
-        <v>218.31200000000001</v>
+        <v>3.73183</v>
       </c>
       <c r="K38" s="1">
-        <v>218.43899999999999</v>
+        <v>3.734</v>
       </c>
       <c r="L38" s="1">
-        <v>218.71100000000001</v>
+        <v>3.7386499999999998</v>
       </c>
       <c r="M38" s="1">
-        <v>218.803</v>
+        <v>3.7402199999999999</v>
       </c>
       <c r="N38" s="1">
-        <v>219.179</v>
+        <v>3.7402199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2212,40 +2212,40 @@
         <v>2011</v>
       </c>
       <c r="C39" s="1">
-        <v>220.22300000000001</v>
+        <v>3.7645</v>
       </c>
       <c r="D39" s="1">
-        <v>221.309</v>
+        <v>3.7830599999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>223.46700000000001</v>
+        <v>3.81995</v>
       </c>
       <c r="F39" s="1">
-        <v>224.90600000000001</v>
+        <v>3.8445499999999999</v>
       </c>
       <c r="G39" s="1">
-        <v>225.964</v>
+        <v>3.8626299999999998</v>
       </c>
       <c r="H39" s="1">
-        <v>225.72200000000001</v>
+        <v>3.8584999999999998</v>
       </c>
       <c r="I39" s="1">
-        <v>225.922</v>
+        <v>3.86191</v>
       </c>
       <c r="J39" s="1">
-        <v>226.54499999999999</v>
+        <v>3.87256</v>
       </c>
       <c r="K39" s="1">
-        <v>226.88900000000001</v>
+        <v>3.8784399999999999</v>
       </c>
       <c r="L39" s="1">
-        <v>226.42099999999999</v>
+        <v>3.8704399999999999</v>
       </c>
       <c r="M39" s="1">
-        <v>226.23</v>
+        <v>3.8671799999999998</v>
       </c>
       <c r="N39" s="1">
-        <v>225.672</v>
+        <v>3.8671799999999998</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2256,40 +2256,40 @@
         <v>2012</v>
       </c>
       <c r="C40" s="1">
-        <v>226.66499999999999</v>
+        <v>3.8746200000000002</v>
       </c>
       <c r="D40" s="1">
-        <v>227.66300000000001</v>
+        <v>3.89168</v>
       </c>
       <c r="E40" s="1">
-        <v>229.392</v>
+        <v>3.92123</v>
       </c>
       <c r="F40" s="1">
-        <v>230.08500000000001</v>
+        <v>3.9330799999999999</v>
       </c>
       <c r="G40" s="1">
-        <v>229.815</v>
+        <v>3.9284599999999998</v>
       </c>
       <c r="H40" s="1">
-        <v>229.47800000000001</v>
+        <v>3.9226999999999999</v>
       </c>
       <c r="I40" s="1">
-        <v>229.10400000000001</v>
+        <v>3.9163100000000002</v>
       </c>
       <c r="J40" s="1">
-        <v>230.37899999999999</v>
+        <v>3.9380999999999999</v>
       </c>
       <c r="K40" s="1">
-        <v>231.40700000000001</v>
+        <v>3.9556800000000001</v>
       </c>
       <c r="L40" s="1">
-        <v>231.31700000000001</v>
+        <v>3.9541400000000002</v>
       </c>
       <c r="M40" s="1">
-        <v>230.221</v>
+        <v>3.9354</v>
       </c>
       <c r="N40" s="1">
-        <v>229.601</v>
+        <v>3.9354</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2300,40 +2300,40 @@
         <v>2013</v>
       </c>
       <c r="C41" s="1">
-        <v>230.28</v>
+        <v>3.93641</v>
       </c>
       <c r="D41" s="1">
-        <v>232.166</v>
+        <v>3.9686499999999998</v>
       </c>
       <c r="E41" s="1">
-        <v>232.773</v>
+        <v>3.9790299999999998</v>
       </c>
       <c r="F41" s="1">
-        <v>232.53100000000001</v>
+        <v>3.9748899999999998</v>
       </c>
       <c r="G41" s="1">
-        <v>232.94499999999999</v>
+        <v>3.98197</v>
       </c>
       <c r="H41" s="1">
-        <v>233.50399999999999</v>
+        <v>3.99152</v>
       </c>
       <c r="I41" s="1">
-        <v>233.596</v>
+        <v>3.99309</v>
       </c>
       <c r="J41" s="1">
-        <v>233.87700000000001</v>
+        <v>3.9979</v>
       </c>
       <c r="K41" s="1">
-        <v>234.149</v>
+        <v>4.0025500000000003</v>
       </c>
       <c r="L41" s="1">
-        <v>233.54599999999999</v>
+        <v>3.9922399999999998</v>
       </c>
       <c r="M41" s="1">
-        <v>233.06899999999999</v>
+        <v>3.9840900000000001</v>
       </c>
       <c r="N41" s="1">
-        <v>233.04900000000001</v>
+        <v>3.9840900000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2344,40 +2344,40 @@
         <v>2014</v>
       </c>
       <c r="C42" s="1">
-        <v>233.916</v>
+        <v>3.9985599999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>234.78100000000001</v>
+        <v>4.01335</v>
       </c>
       <c r="E42" s="1">
-        <v>236.29300000000001</v>
+        <v>4.0392000000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>237.072</v>
+        <v>4.0525099999999998</v>
       </c>
       <c r="G42" s="1">
-        <v>237.9</v>
+        <v>4.0666700000000002</v>
       </c>
       <c r="H42" s="1">
-        <v>238.34299999999999</v>
+        <v>4.0742399999999996</v>
       </c>
       <c r="I42" s="1">
-        <v>238.25</v>
+        <v>4.0726500000000003</v>
       </c>
       <c r="J42" s="1">
-        <v>237.852</v>
+        <v>4.0658500000000002</v>
       </c>
       <c r="K42" s="1">
-        <v>238.03100000000001</v>
+        <v>4.0689099999999998</v>
       </c>
       <c r="L42" s="1">
-        <v>237.43299999999999</v>
+        <v>4.0586799999999998</v>
       </c>
       <c r="M42" s="1">
-        <v>236.15100000000001</v>
+        <v>4.0367699999999997</v>
       </c>
       <c r="N42" s="1">
-        <v>234.81200000000001</v>
+        <v>4.0367699999999997</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2388,40 +2388,40 @@
         <v>2015</v>
       </c>
       <c r="C43" s="1">
-        <v>233.70699999999999</v>
+        <v>3.99499</v>
       </c>
       <c r="D43" s="1">
-        <v>234.72200000000001</v>
+        <v>4.01234</v>
       </c>
       <c r="E43" s="1">
-        <v>236.119</v>
+        <v>4.0362200000000001</v>
       </c>
       <c r="F43" s="1">
-        <v>236.59899999999999</v>
+        <v>4.0444300000000002</v>
       </c>
       <c r="G43" s="1">
-        <v>237.80500000000001</v>
+        <v>4.0650399999999998</v>
       </c>
       <c r="H43" s="1">
-        <v>238.63800000000001</v>
+        <v>4.0792799999999998</v>
       </c>
       <c r="I43" s="1">
-        <v>238.654</v>
+        <v>4.0795599999999999</v>
       </c>
       <c r="J43" s="1">
-        <v>238.316</v>
+        <v>4.0737800000000002</v>
       </c>
       <c r="K43" s="1">
-        <v>237.94499999999999</v>
+        <v>4.0674400000000004</v>
       </c>
       <c r="L43" s="1">
-        <v>237.83799999999999</v>
+        <v>4.0656100000000004</v>
       </c>
       <c r="M43" s="1">
-        <v>237.33600000000001</v>
+        <v>4.0570300000000001</v>
       </c>
       <c r="N43" s="1">
-        <v>236.52500000000001</v>
+        <v>4.0570300000000001</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2432,40 +2432,40 @@
         <v>2016</v>
       </c>
       <c r="C44" s="1">
-        <v>236.916</v>
+        <v>4.0498500000000002</v>
       </c>
       <c r="D44" s="1">
-        <v>237.11099999999999</v>
+        <v>4.0531800000000002</v>
       </c>
       <c r="E44" s="1">
-        <v>238.13200000000001</v>
+        <v>4.0706300000000004</v>
       </c>
       <c r="F44" s="1">
-        <v>239.261</v>
+        <v>4.0899299999999998</v>
       </c>
       <c r="G44" s="1">
-        <v>240.22900000000001</v>
+        <v>4.1064800000000004</v>
       </c>
       <c r="H44" s="1">
-        <v>241.018</v>
+        <v>4.1199700000000004</v>
       </c>
       <c r="I44" s="1">
-        <v>240.62799999999999</v>
+        <v>4.1132999999999997</v>
       </c>
       <c r="J44" s="1">
-        <v>240.84899999999999</v>
+        <v>4.1170799999999996</v>
       </c>
       <c r="K44" s="1">
-        <v>241.428</v>
+        <v>4.12697</v>
       </c>
       <c r="L44" s="1">
-        <v>241.72900000000001</v>
+        <v>4.1321199999999996</v>
       </c>
       <c r="M44" s="1">
-        <v>241.35300000000001</v>
+        <v>4.1256899999999996</v>
       </c>
       <c r="N44" s="1">
-        <v>241.43199999999999</v>
+        <v>4.1256899999999996</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2476,40 +2476,40 @@
         <v>2017</v>
       </c>
       <c r="C45" s="1">
-        <v>242.839</v>
+        <v>4.1510899999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>243.60300000000001</v>
+        <v>4.1641500000000002</v>
       </c>
       <c r="E45" s="1">
-        <v>243.80099999999999</v>
+        <v>4.1675399999999998</v>
       </c>
       <c r="F45" s="1">
-        <v>244.524</v>
+        <v>4.1798999999999999</v>
       </c>
       <c r="G45" s="1">
-        <v>244.733</v>
+        <v>4.1834699999999998</v>
       </c>
       <c r="H45" s="1">
-        <v>244.95500000000001</v>
+        <v>4.1872600000000002</v>
       </c>
       <c r="I45" s="1">
-        <v>244.786</v>
+        <v>4.18438</v>
       </c>
       <c r="J45" s="1">
-        <v>245.51900000000001</v>
+        <v>4.1969099999999999</v>
       </c>
       <c r="K45" s="1">
-        <v>246.81899999999999</v>
+        <v>4.2191299999999998</v>
       </c>
       <c r="L45" s="1">
-        <v>246.66300000000001</v>
+        <v>4.2164599999999997</v>
       </c>
       <c r="M45" s="1">
-        <v>246.66900000000001</v>
+        <v>4.2165600000000003</v>
       </c>
       <c r="N45" s="1">
-        <v>246.524</v>
+        <v>4.2165600000000003</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2520,40 +2520,40 @@
         <v>2018</v>
       </c>
       <c r="C46" s="1">
-        <v>247.86699999999999</v>
+        <v>4.2370400000000004</v>
       </c>
       <c r="D46" s="1">
-        <v>248.99100000000001</v>
+        <v>4.2562600000000002</v>
       </c>
       <c r="E46" s="1">
-        <v>249.554</v>
+        <v>4.2658800000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>250.54599999999999</v>
+        <v>4.2828400000000002</v>
       </c>
       <c r="G46" s="1">
-        <v>251.58799999999999</v>
+        <v>4.3006500000000001</v>
       </c>
       <c r="H46" s="1">
-        <v>251.989</v>
+        <v>4.3075000000000001</v>
       </c>
       <c r="I46" s="1">
-        <v>252.006</v>
+        <v>4.3077899999999998</v>
       </c>
       <c r="J46" s="1">
-        <v>252.14599999999999</v>
+        <v>4.3101900000000004</v>
       </c>
       <c r="K46" s="1">
-        <v>252.43899999999999</v>
+        <v>4.3151999999999999</v>
       </c>
       <c r="L46" s="1">
-        <v>252.88499999999999</v>
+        <v>4.3228200000000001</v>
       </c>
       <c r="M46" s="1">
-        <v>252.03800000000001</v>
+        <v>4.3083400000000003</v>
       </c>
       <c r="N46" s="1">
-        <v>251.233</v>
+        <v>4.3083400000000003</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2564,40 +2564,40 @@
         <v>2019</v>
       </c>
       <c r="C47" s="1">
-        <v>251.71199999999999</v>
+        <v>4.3027699999999998</v>
       </c>
       <c r="D47" s="1">
-        <v>252.77600000000001</v>
+        <v>4.3209600000000004</v>
       </c>
       <c r="E47" s="1">
-        <v>254.202</v>
+        <v>4.3453299999999997</v>
       </c>
       <c r="F47" s="1">
-        <v>255.548</v>
+        <v>4.3683399999999999</v>
       </c>
       <c r="G47" s="1">
-        <v>256.09199999999998</v>
+        <v>4.3776400000000004</v>
       </c>
       <c r="H47" s="1">
-        <v>256.14299999999997</v>
+        <v>4.3785100000000003</v>
       </c>
       <c r="I47" s="1">
-        <v>256.57100000000003</v>
+        <v>4.3858300000000003</v>
       </c>
       <c r="J47" s="1">
-        <v>256.55799999999999</v>
+        <v>4.3856099999999998</v>
       </c>
       <c r="K47" s="1">
-        <v>256.75900000000001</v>
+        <v>4.3890399999999996</v>
       </c>
       <c r="L47" s="1">
-        <v>257.346</v>
+        <v>4.3990799999999997</v>
       </c>
       <c r="M47" s="1">
-        <v>257.20800000000003</v>
+        <v>4.3967200000000002</v>
       </c>
       <c r="N47" s="1">
-        <v>256.97399999999999</v>
+        <v>4.3967200000000002</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2608,40 +2608,40 @@
         <v>2020</v>
       </c>
       <c r="C48" s="1">
-        <v>257.971</v>
+        <v>4.4097600000000003</v>
       </c>
       <c r="D48" s="1">
-        <v>258.678</v>
+        <v>4.4218500000000001</v>
       </c>
       <c r="E48" s="1">
-        <v>258.11500000000001</v>
+        <v>4.4122199999999996</v>
       </c>
       <c r="F48" s="1">
-        <v>256.38900000000001</v>
+        <v>4.3827199999999999</v>
       </c>
       <c r="G48" s="1">
-        <v>256.39400000000001</v>
+        <v>4.3827999999999996</v>
       </c>
       <c r="H48" s="1">
-        <v>257.79700000000003</v>
+        <v>4.40679</v>
       </c>
       <c r="I48" s="1">
-        <v>259.101</v>
+        <v>4.4290799999999999</v>
       </c>
       <c r="J48" s="1">
-        <v>259.91800000000001</v>
+        <v>4.4430399999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>260.27999999999997</v>
+        <v>4.44923</v>
       </c>
       <c r="L48" s="1">
-        <v>260.38799999999998</v>
+        <v>4.4510800000000001</v>
       </c>
       <c r="M48" s="1">
-        <v>260.22899999999998</v>
+        <v>4.4483600000000001</v>
       </c>
       <c r="N48" s="1">
-        <v>260.47399999999999</v>
+        <v>4.4483600000000001</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2652,40 +2652,40 @@
         <v>2021</v>
       </c>
       <c r="C49" s="1">
-        <v>261.58199999999999</v>
+        <v>4.4714900000000002</v>
       </c>
       <c r="D49" s="1">
-        <v>263.01400000000001</v>
+        <v>4.4959699999999998</v>
       </c>
       <c r="E49" s="1">
-        <v>264.87700000000001</v>
+        <v>4.5278099999999997</v>
       </c>
       <c r="F49" s="1">
-        <v>267.05399999999997</v>
+        <v>4.5650300000000001</v>
       </c>
       <c r="G49" s="1">
-        <v>269.19499999999999</v>
+        <v>4.6016199999999996</v>
       </c>
       <c r="H49" s="1">
-        <v>271.69600000000003</v>
+        <v>4.64438</v>
       </c>
       <c r="I49" s="1">
-        <v>273.00299999999999</v>
+        <v>4.6667199999999998</v>
       </c>
       <c r="J49" s="1">
-        <v>273.56700000000001</v>
+        <v>4.6763599999999999</v>
       </c>
       <c r="K49" s="1">
-        <v>274.31</v>
+        <v>4.6890599999999996</v>
       </c>
       <c r="L49" s="1">
-        <v>276.589</v>
+        <v>4.7280199999999999</v>
       </c>
       <c r="M49" s="1">
-        <v>277.94799999999998</v>
+        <v>4.7512499999999998</v>
       </c>
       <c r="N49" s="1">
-        <v>278.80200000000002</v>
+        <v>4.7512499999999998</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2696,40 +2696,40 @@
         <v>2022</v>
       </c>
       <c r="C50" s="1">
-        <v>281.14800000000002</v>
+        <v>4.8059500000000002</v>
       </c>
       <c r="D50" s="1">
-        <v>283.71600000000001</v>
+        <v>4.84985</v>
       </c>
       <c r="E50" s="1">
-        <v>287.50400000000002</v>
+        <v>4.9146000000000001</v>
       </c>
       <c r="F50" s="1">
-        <v>289.10899999999998</v>
+        <v>4.9420299999999999</v>
       </c>
       <c r="G50" s="1">
-        <v>292.29599999999999</v>
+        <v>4.9965099999999998</v>
       </c>
       <c r="H50" s="1">
-        <v>296.31099999999998</v>
+        <v>5.06515</v>
       </c>
       <c r="I50" s="1">
-        <v>296.27600000000001</v>
+        <v>5.0645499999999997</v>
       </c>
       <c r="J50" s="1">
-        <v>296.17099999999999</v>
+        <v>5.0627500000000003</v>
       </c>
       <c r="K50" s="1">
-        <v>296.80799999999999</v>
+        <v>5.0736400000000001</v>
       </c>
       <c r="L50" s="1">
-        <v>298.012</v>
+        <v>5.09422</v>
       </c>
       <c r="M50" s="1">
-        <v>297.71100000000001</v>
+        <v>5.08908</v>
       </c>
       <c r="N50" s="1">
-        <v>296.79700000000003</v>
+        <v>5.08908</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2980,5 +2980,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/ItemPriceRateTable.xlsx
+++ b/Assets/Excel/ItemPriceRateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC697E-D306-4B8C-860C-73D745B30704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7DD772-B030-4E7A-AFAD-88A602E48E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemPriceRateTable" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>300000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>1977</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>300000000002</v>
       </c>
       <c r="B6" s="1">
-        <v>1978</v>
+        <v>1301</v>
       </c>
       <c r="C6" s="1">
         <v>1.0683800000000001</v>
@@ -801,7 +801,7 @@
         <v>300000000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1979</v>
+        <v>1302</v>
       </c>
       <c r="C7" s="1">
         <v>1.1675199999999999</v>
@@ -845,7 +845,7 @@
         <v>300000000004</v>
       </c>
       <c r="B8" s="1">
-        <v>1980</v>
+        <v>1303</v>
       </c>
       <c r="C8" s="1">
         <v>1.3299099999999999</v>
@@ -889,7 +889,7 @@
         <v>300000000005</v>
       </c>
       <c r="B9" s="1">
-        <v>1981</v>
+        <v>1304</v>
       </c>
       <c r="C9" s="1">
         <v>1.4871799999999999</v>
@@ -933,7 +933,7 @@
         <v>300000000006</v>
       </c>
       <c r="B10" s="1">
-        <v>1982</v>
+        <v>1305</v>
       </c>
       <c r="C10" s="1">
         <v>1.6119699999999999</v>
@@ -977,7 +977,7 @@
         <v>300000000007</v>
       </c>
       <c r="B11" s="1">
-        <v>1983</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="1">
         <v>1.6717900000000001</v>
@@ -1021,7 +1021,7 @@
         <v>300000000008</v>
       </c>
       <c r="B12" s="1">
-        <v>1984</v>
+        <v>1307</v>
       </c>
       <c r="C12" s="1">
         <v>1.7418800000000001</v>
@@ -1065,7 +1065,7 @@
         <v>300000000009</v>
       </c>
       <c r="B13" s="1">
-        <v>1985</v>
+        <v>1308</v>
       </c>
       <c r="C13" s="1">
         <v>1.80342</v>
@@ -1109,7 +1109,7 @@
         <v>300000000010</v>
       </c>
       <c r="B14" s="1">
-        <v>1986</v>
+        <v>1309</v>
       </c>
       <c r="C14" s="1">
         <v>1.8734999999999999</v>
@@ -1153,7 +1153,7 @@
         <v>300000000011</v>
       </c>
       <c r="B15" s="1">
-        <v>1987</v>
+        <v>1310</v>
       </c>
       <c r="C15" s="1">
         <v>1.9008499999999999</v>
@@ -1197,7 +1197,7 @@
         <v>300000000012</v>
       </c>
       <c r="B16" s="1">
-        <v>1988</v>
+        <v>1311</v>
       </c>
       <c r="C16" s="1">
         <v>1.9777800000000001</v>
@@ -1241,7 +1241,7 @@
         <v>300000000013</v>
       </c>
       <c r="B17" s="1">
-        <v>1989</v>
+        <v>1312</v>
       </c>
       <c r="C17" s="1">
         <v>2.07009</v>
@@ -1285,7 +1285,7 @@
         <v>300000000014</v>
       </c>
       <c r="B18" s="1">
-        <v>1990</v>
+        <v>1313</v>
       </c>
       <c r="C18" s="1">
         <v>2.1777799999999998</v>
@@ -1329,7 +1329,7 @@
         <v>300000000015</v>
       </c>
       <c r="B19" s="1">
-        <v>1991</v>
+        <v>1314</v>
       </c>
       <c r="C19" s="1">
         <v>2.3008500000000001</v>
@@ -1373,7 +1373,7 @@
         <v>300000000016</v>
       </c>
       <c r="B20" s="1">
-        <v>1992</v>
+        <v>1315</v>
       </c>
       <c r="C20" s="1">
         <v>2.3606799999999999</v>
@@ -1417,7 +1417,7 @@
         <v>300000000017</v>
       </c>
       <c r="B21" s="1">
-        <v>1993</v>
+        <v>1316</v>
       </c>
       <c r="C21" s="1">
         <v>2.4376099999999998</v>
@@ -1461,7 +1461,7 @@
         <v>300000000018</v>
       </c>
       <c r="B22" s="1">
-        <v>1994</v>
+        <v>1317</v>
       </c>
       <c r="C22" s="1">
         <v>2.4991500000000002</v>
@@ -1505,7 +1505,7 @@
         <v>300000000019</v>
       </c>
       <c r="B23" s="1">
-        <v>1995</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="1">
         <v>2.5692300000000001</v>
@@ -1549,7 +1549,7 @@
         <v>300000000020</v>
       </c>
       <c r="B24" s="1">
-        <v>1996</v>
+        <v>1319</v>
       </c>
       <c r="C24" s="1">
         <v>2.6393200000000001</v>
@@ -1593,7 +1593,7 @@
         <v>300000000021</v>
       </c>
       <c r="B25" s="1">
-        <v>1997</v>
+        <v>1320</v>
       </c>
       <c r="C25" s="1">
         <v>2.7196600000000002</v>
@@ -1637,7 +1637,7 @@
         <v>300000000022</v>
       </c>
       <c r="B26" s="1">
-        <v>1998</v>
+        <v>1321</v>
       </c>
       <c r="C26" s="1">
         <v>2.7623899999999999</v>
@@ -1681,7 +1681,7 @@
         <v>300000000023</v>
       </c>
       <c r="B27" s="1">
-        <v>1999</v>
+        <v>1322</v>
       </c>
       <c r="C27" s="1">
         <v>2.8085499999999999</v>
@@ -1725,7 +1725,7 @@
         <v>300000000024</v>
       </c>
       <c r="B28" s="1">
-        <v>2000</v>
+        <v>1323</v>
       </c>
       <c r="C28" s="1">
         <v>2.8854700000000002</v>
@@ -1769,7 +1769,7 @@
         <v>300000000025</v>
       </c>
       <c r="B29" s="1">
-        <v>2001</v>
+        <v>1324</v>
       </c>
       <c r="C29" s="1">
         <v>2.99316</v>
@@ -1813,7 +1813,7 @@
         <v>300000000026</v>
       </c>
       <c r="B30" s="1">
-        <v>2002</v>
+        <v>1325</v>
       </c>
       <c r="C30" s="1">
         <v>3.0273500000000002</v>
@@ -1857,7 +1857,7 @@
         <v>300000000027</v>
       </c>
       <c r="B31" s="1">
-        <v>2003</v>
+        <v>1326</v>
       </c>
       <c r="C31" s="1">
         <v>3.1059800000000002</v>
@@ -1901,7 +1901,7 @@
         <v>300000000028</v>
       </c>
       <c r="B32" s="1">
-        <v>2004</v>
+        <v>1327</v>
       </c>
       <c r="C32" s="1">
         <v>3.16581</v>
@@ -1945,7 +1945,7 @@
         <v>300000000029</v>
       </c>
       <c r="B33" s="1">
-        <v>2005</v>
+        <v>1328</v>
       </c>
       <c r="C33" s="1">
         <v>3.25983</v>
@@ -1989,7 +1989,7 @@
         <v>300000000030</v>
       </c>
       <c r="B34" s="1">
-        <v>2006</v>
+        <v>1329</v>
       </c>
       <c r="C34" s="1">
         <v>3.3897400000000002</v>
@@ -2033,7 +2033,7 @@
         <v>300000000031</v>
       </c>
       <c r="B35" s="1">
-        <v>2007</v>
+        <v>1330</v>
       </c>
       <c r="C35" s="1">
         <v>3.4601000000000002</v>
@@ -2077,7 +2077,7 @@
         <v>300000000032</v>
       </c>
       <c r="B36" s="1">
-        <v>2008</v>
+        <v>1331</v>
       </c>
       <c r="C36" s="1">
         <v>3.6082100000000001</v>
@@ -2121,7 +2121,7 @@
         <v>300000000033</v>
       </c>
       <c r="B37" s="1">
-        <v>2009</v>
+        <v>1332</v>
       </c>
       <c r="C37" s="1">
         <v>3.60928</v>
@@ -2165,7 +2165,7 @@
         <v>300000000034</v>
       </c>
       <c r="B38" s="1">
-        <v>2010</v>
+        <v>1333</v>
       </c>
       <c r="C38" s="1">
         <v>3.7040500000000001</v>
@@ -2209,7 +2209,7 @@
         <v>300000000035</v>
       </c>
       <c r="B39" s="1">
-        <v>2011</v>
+        <v>1334</v>
       </c>
       <c r="C39" s="1">
         <v>3.7645</v>
@@ -2253,7 +2253,7 @@
         <v>300000000036</v>
       </c>
       <c r="B40" s="1">
-        <v>2012</v>
+        <v>1335</v>
       </c>
       <c r="C40" s="1">
         <v>3.8746200000000002</v>
@@ -2297,7 +2297,7 @@
         <v>300000000037</v>
       </c>
       <c r="B41" s="1">
-        <v>2013</v>
+        <v>1336</v>
       </c>
       <c r="C41" s="1">
         <v>3.93641</v>
@@ -2341,7 +2341,7 @@
         <v>300000000038</v>
       </c>
       <c r="B42" s="1">
-        <v>2014</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="1">
         <v>3.9985599999999999</v>
@@ -2385,7 +2385,7 @@
         <v>300000000039</v>
       </c>
       <c r="B43" s="1">
-        <v>2015</v>
+        <v>1338</v>
       </c>
       <c r="C43" s="1">
         <v>3.99499</v>
@@ -2429,7 +2429,7 @@
         <v>300000000040</v>
       </c>
       <c r="B44" s="1">
-        <v>2016</v>
+        <v>1339</v>
       </c>
       <c r="C44" s="1">
         <v>4.0498500000000002</v>
@@ -2473,7 +2473,7 @@
         <v>300000000041</v>
       </c>
       <c r="B45" s="1">
-        <v>2017</v>
+        <v>1340</v>
       </c>
       <c r="C45" s="1">
         <v>4.1510899999999999</v>
@@ -2517,7 +2517,7 @@
         <v>300000000042</v>
       </c>
       <c r="B46" s="1">
-        <v>2018</v>
+        <v>1341</v>
       </c>
       <c r="C46" s="1">
         <v>4.2370400000000004</v>
@@ -2561,7 +2561,7 @@
         <v>300000000043</v>
       </c>
       <c r="B47" s="1">
-        <v>2019</v>
+        <v>1342</v>
       </c>
       <c r="C47" s="1">
         <v>4.3027699999999998</v>
@@ -2605,7 +2605,7 @@
         <v>300000000044</v>
       </c>
       <c r="B48" s="1">
-        <v>2020</v>
+        <v>1343</v>
       </c>
       <c r="C48" s="1">
         <v>4.4097600000000003</v>
@@ -2649,7 +2649,7 @@
         <v>300000000045</v>
       </c>
       <c r="B49" s="1">
-        <v>2021</v>
+        <v>1344</v>
       </c>
       <c r="C49" s="1">
         <v>4.4714900000000002</v>
@@ -2693,7 +2693,7 @@
         <v>300000000046</v>
       </c>
       <c r="B50" s="1">
-        <v>2022</v>
+        <v>1345</v>
       </c>
       <c r="C50" s="1">
         <v>4.8059500000000002</v>
@@ -2737,7 +2737,7 @@
         <v>300000000047</v>
       </c>
       <c r="B51" s="1">
-        <v>2023</v>
+        <v>1346</v>
       </c>
       <c r="C51" s="1">
         <v>299.17</v>
